--- a/medicine/Psychotrope/Thé_de_Gisovu/Thé_de_Gisovu.xlsx
+++ b/medicine/Psychotrope/Thé_de_Gisovu/Thé_de_Gisovu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_de_Gisovu</t>
+          <t>Thé_de_Gisovu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le thé de Gisovu est un thé cultivé souvent dans les montagnes de Gisovu dans le secteur de Twumba, district de Karongi dans la province de l'Ouest. C'est le thé le plus cher au Rwanda et sur le marché international, où il a été acheté  5,97 dollars, et le thé Kitabi aussi[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thé de Gisovu est un thé cultivé souvent dans les montagnes de Gisovu dans le secteur de Twumba, district de Karongi dans la province de l'Ouest. C'est le thé le plus cher au Rwanda et sur le marché international, où il a été acheté  5,97 dollars, et le thé Kitabi aussi,.
 </t>
         </is>
       </c>
